--- a/data/trans_dic/POLIPATOLOGIA_Lim_2-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/POLIPATOLOGIA_Lim_2-Provincia-trans_dic.xlsx
@@ -646,7 +646,7 @@
         <v>0.1444832574255489</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.1560281124056855</v>
+        <v>0.1560281124056856</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>0.2990797247063951</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1135126977160948</v>
+        <v>0.1086010816565899</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1067904320299573</v>
+        <v>0.1076737581374227</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1200610303523518</v>
+        <v>0.1219795960249442</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.2402366867826725</v>
+        <v>0.2382766816926741</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.2607531076867206</v>
+        <v>0.2626197218023505</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.2111345016640406</v>
+        <v>0.2083746638425193</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.1883760947301051</v>
+        <v>0.1859888922567015</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1975361328800235</v>
+        <v>0.1900875239133191</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1746125314039359</v>
+        <v>0.176858912698316</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1915756351059625</v>
+        <v>0.1939084056484349</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1872322979600076</v>
+        <v>0.1895898291382499</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1943336341645967</v>
+        <v>0.1974568534815163</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.3594727310160286</v>
+        <v>0.3602571609513884</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.3801710501943228</v>
+        <v>0.3702556173523422</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.2839886848307913</v>
+        <v>0.2819046013923885</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.2588732430200151</v>
+        <v>0.2580680107905132</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.2714409610565225</v>
+        <v>0.2659423166450769</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.2261372656030485</v>
+        <v>0.2288974780163318</v>
       </c>
     </row>
     <row r="7">
@@ -764,7 +764,7 @@
         <v>0.2683905777918311</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>0.3069475273925001</v>
+        <v>0.3069475273925</v>
       </c>
       <c r="I7" s="5" t="n">
         <v>0.2425961180460762</v>
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1490288360375196</v>
+        <v>0.14661818531204</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1049300604983721</v>
+        <v>0.1049168110475431</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1135900547666443</v>
+        <v>0.1148974626465096</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.2608025862390089</v>
+        <v>0.2627298229424793</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.2313967388638055</v>
+        <v>0.2268524235036124</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.2698092656837658</v>
+        <v>0.2718171861272529</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.2140411315390615</v>
+        <v>0.2159673141631759</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1784760478026356</v>
+        <v>0.1773261377558269</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.2037413509864369</v>
+        <v>0.2028690671279573</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.2275062131230839</v>
+        <v>0.2242087748175673</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1647572640898844</v>
+        <v>0.1640865141601931</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1793149573194251</v>
+        <v>0.1793290931092918</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.3473555223965938</v>
+        <v>0.343052148728712</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.3115885451769327</v>
+        <v>0.3076213526959994</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.3415058386107094</v>
+        <v>0.3387715571191879</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.2695421870911741</v>
+        <v>0.2744673709673336</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.2312008702468323</v>
+        <v>0.2282728146657537</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.2539949228491892</v>
+        <v>0.2503367524617719</v>
       </c>
     </row>
     <row r="10">
@@ -882,7 +882,7 @@
         <v>0.1757809461223816</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>0.283345502357816</v>
+        <v>0.2833455023578159</v>
       </c>
     </row>
     <row r="11">
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1664930717697943</v>
+        <v>0.1635457862877151</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.08538915235910574</v>
+        <v>0.0896531570221529</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1890666715300552</v>
+        <v>0.1941709377322605</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.2187432886365496</v>
+        <v>0.2170935345742404</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1844038861194449</v>
+        <v>0.1834629986394551</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.2878527321747916</v>
+        <v>0.2875816606514771</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.2047884295432604</v>
+        <v>0.2027649437444434</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1503038047028291</v>
+        <v>0.1478069927019108</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.2562598526301763</v>
+        <v>0.2533264671643603</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2604940144797899</v>
+        <v>0.2593826531681504</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1580699002147186</v>
+        <v>0.1562952391545874</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2726185501402709</v>
+        <v>0.2785305405201667</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.3160187220573213</v>
+        <v>0.3136487912535613</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.2808140389247955</v>
+        <v>0.2773076562013204</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.3664846044552482</v>
+        <v>0.3669710603145282</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.2723447569516547</v>
+        <v>0.272800030488363</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.2122682931975168</v>
+        <v>0.2058414402575026</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.3106437418939906</v>
+        <v>0.3150575249530977</v>
       </c>
     </row>
     <row r="13">
@@ -982,7 +982,7 @@
         <v>0.3123742938257977</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>0.3388104162071059</v>
+        <v>0.3388104162071058</v>
       </c>
       <c r="I13" s="5" t="n">
         <v>0.2348632176472477</v>
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1120319753473031</v>
+        <v>0.1152813981822984</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.131036578500232</v>
+        <v>0.1311864329155193</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1903442513008853</v>
+        <v>0.1909730921424221</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.270515424540731</v>
+        <v>0.2691357742392799</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2652051349912368</v>
+        <v>0.26382493140362</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.3037994101620935</v>
+        <v>0.3023021650064056</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.205555188795116</v>
+        <v>0.2076051392922696</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.2097125023637112</v>
+        <v>0.2093336646283625</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.2595714149407302</v>
+        <v>0.2594538435396691</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.191727077250971</v>
+        <v>0.1889735813617524</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2113233478593055</v>
+        <v>0.2066601680435896</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2907449033226645</v>
+        <v>0.2946127668079888</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.3660552279072024</v>
+        <v>0.3645093540884858</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.3606467351777612</v>
+        <v>0.367306554221799</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.3836148260732098</v>
+        <v>0.3868570899842417</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.267738498299738</v>
+        <v>0.2662414829696602</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.2735185074969027</v>
+        <v>0.2762254884879063</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.3264162297178201</v>
+        <v>0.3285193874137169</v>
       </c>
     </row>
     <row r="16">
@@ -1111,31 +1111,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.163584080576887</v>
+        <v>0.1650902289078508</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1107559383020507</v>
+        <v>0.1100539199989072</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.0955212411613878</v>
+        <v>0.09122194483655299</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.4056034981750932</v>
+        <v>0.4039662374337074</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2377716615381298</v>
+        <v>0.2343509939570652</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.22846586270399</v>
+        <v>0.2299926277578238</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.3001864216655888</v>
+        <v>0.3035623428643793</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1845573641027671</v>
+        <v>0.1846089476745517</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.1760378534536803</v>
+        <v>0.1758177052584538</v>
       </c>
     </row>
     <row r="18">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.2818779497412741</v>
+        <v>0.2836775250112888</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2059790774479342</v>
+        <v>0.2077212156038827</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.16731369199064</v>
+        <v>0.1668651789495012</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.5362222709203851</v>
+        <v>0.5406590845398831</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.3584448010849398</v>
+        <v>0.3552390537252706</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.3079460871983095</v>
+        <v>0.3088316707556585</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.3943428237594889</v>
+        <v>0.3997170684573952</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.2633118154876759</v>
+        <v>0.2690003874083073</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.2321187295913723</v>
+        <v>0.2298413095336314</v>
       </c>
     </row>
     <row r="19">
@@ -1191,7 +1191,7 @@
         <v>0.1845439704349889</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.248854519021953</v>
+        <v>0.2488545190219531</v>
       </c>
       <c r="F19" s="5" t="n">
         <v>0.3369918567390282</v>
@@ -1200,7 +1200,7 @@
         <v>0.2699347024414343</v>
       </c>
       <c r="H19" s="5" t="n">
-        <v>0.3713848781886629</v>
+        <v>0.3713848781886627</v>
       </c>
       <c r="I19" s="5" t="n">
         <v>0.2859414323776989</v>
@@ -1220,31 +1220,31 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.1797551050189504</v>
+        <v>0.1851332084909351</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.1389442000903094</v>
+        <v>0.1396731910721216</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.2073363335531219</v>
+        <v>0.2042684480281476</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.2845583858277274</v>
+        <v>0.2846086106390616</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.2194594154909047</v>
+        <v>0.2169388526353386</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.3255637329523206</v>
+        <v>0.3294574007892563</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.2488178919634089</v>
+        <v>0.2463500088271043</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.1920577897274471</v>
+        <v>0.1939089633286187</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.2750488595527741</v>
+        <v>0.2791684550174319</v>
       </c>
     </row>
     <row r="21">
@@ -1255,31 +1255,31 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.2874997232990735</v>
+        <v>0.2919633051770641</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.2372150686691168</v>
+        <v>0.237794042260622</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.2951571196056486</v>
+        <v>0.2948205920225788</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.3927787260801612</v>
+        <v>0.3946962061761137</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.324604329470872</v>
+        <v>0.3260903550724235</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.414347974195441</v>
+        <v>0.4195493913675645</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.3274666432492473</v>
+        <v>0.327239211288677</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.2646519395003791</v>
+        <v>0.2683003674672184</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.3388084420275467</v>
+        <v>0.3422402195386908</v>
       </c>
     </row>
     <row r="22">
@@ -1309,7 +1309,7 @@
         <v>0.2134445727206254</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>0.4355036589146803</v>
+        <v>0.4355036589146802</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>0.2173064527698978</v>
@@ -1329,31 +1329,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.129091094652291</v>
+        <v>0.1276407275990956</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.1172753553346591</v>
+        <v>0.1147709883757828</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.193356995846265</v>
+        <v>0.1905627213068022</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.2399399214522794</v>
+        <v>0.2360919381459846</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1820996426029832</v>
+        <v>0.1835787166213211</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.4025471808649808</v>
+        <v>0.4014806588019798</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.1958444788273997</v>
+        <v>0.1968386223984263</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.1589304376976678</v>
+        <v>0.1580295297711039</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.3064177058810653</v>
+        <v>0.3097892750246669</v>
       </c>
     </row>
     <row r="24">
@@ -1364,31 +1364,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.1902000445156595</v>
+        <v>0.1870695694937159</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1752290633072056</v>
+        <v>0.1704773036612808</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.2638652771798675</v>
+        <v>0.2571640902868134</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.3072621498879602</v>
+        <v>0.306657182081397</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.2449637501632794</v>
+        <v>0.2477725611296322</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.4672460426055645</v>
+        <v>0.4680875974453281</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.2421058065958905</v>
+        <v>0.244085424157657</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.2010822614071224</v>
+        <v>0.2021698901144652</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.3577485772356429</v>
+        <v>0.3588158896243401</v>
       </c>
     </row>
     <row r="25">
@@ -1438,31 +1438,31 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.1139077865309744</v>
+        <v>0.1139268438160812</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.134734620105882</v>
+        <v>0.1347239626137822</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.1022224372430208</v>
+        <v>0.1015795257054054</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.2057210964436769</v>
+        <v>0.2023732955940037</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.206844977622745</v>
+        <v>0.2109887435346894</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.2250487029417858</v>
+        <v>0.2267585593057472</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.1673996840777736</v>
+        <v>0.1687157509493077</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.1812941171821925</v>
+        <v>0.1805964259969122</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.1732716468732052</v>
+        <v>0.171057476850045</v>
       </c>
     </row>
     <row r="27">
@@ -1473,31 +1473,31 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.1661949037628656</v>
+        <v>0.1688179846221428</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.1870349232070852</v>
+        <v>0.1879718381858379</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.1469402430133225</v>
+        <v>0.143063339676257</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.2665015837637981</v>
+        <v>0.2652660337869728</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.2698987032257514</v>
+        <v>0.2711440122115524</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.2764548879675919</v>
+        <v>0.2772609251771557</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.2108936536389797</v>
+        <v>0.208812138628752</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.2206557894458391</v>
+        <v>0.2208694797588002</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.2071818920664729</v>
+        <v>0.2061465623617062</v>
       </c>
     </row>
     <row r="28">
@@ -1547,31 +1547,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.1574230628536044</v>
+        <v>0.1571977580252807</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.1371901229543218</v>
+        <v>0.1373197629726972</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.1690362338059559</v>
+        <v>0.1683124216266734</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.2759750294189788</v>
+        <v>0.2755867539989996</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.2431519885744115</v>
+        <v>0.2411415550930993</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.3091852418855027</v>
+        <v>0.3110223056112455</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.221557444366412</v>
+        <v>0.2221850620732218</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.1948678771085134</v>
+        <v>0.1951342623560994</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.2446091095216363</v>
+        <v>0.2447684413526258</v>
       </c>
     </row>
     <row r="30">
@@ -1582,31 +1582,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.1849007873077533</v>
+        <v>0.1840028520501623</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.1625223489518376</v>
+        <v>0.1618981543279248</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.1949462068893653</v>
+        <v>0.1939322040663885</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.3097135340318662</v>
+        <v>0.3084926289440859</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.2739350984640687</v>
+        <v>0.2739791848419643</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.3364695450114094</v>
+        <v>0.3378771573235088</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.24206427845719</v>
+        <v>0.2422663433221398</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.2149532441470101</v>
+        <v>0.2150270692734065</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.2636513065882695</v>
+        <v>0.2642479649790835</v>
       </c>
     </row>
     <row r="31">
@@ -1839,31 +1839,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>33457</v>
+        <v>32009</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>31371</v>
+        <v>31630</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>38281</v>
+        <v>38893</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>69007</v>
+        <v>68444</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>75280</v>
+        <v>75819</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>66731</v>
+        <v>65859</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>109632</v>
+        <v>108242</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>115058</v>
+        <v>110719</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>110863</v>
+        <v>112289</v>
       </c>
     </row>
     <row r="7">
@@ -1874,31 +1874,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>56465</v>
+        <v>57152</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>55002</v>
+        <v>55694</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>61962</v>
+        <v>62958</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>103257</v>
+        <v>103482</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>109757</v>
+        <v>106894</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>89758</v>
+        <v>89099</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>150660</v>
+        <v>150191</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>158105</v>
+        <v>154902</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>143576</v>
+        <v>145328</v>
       </c>
     </row>
     <row r="8">
@@ -1983,31 +1983,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>75338</v>
+        <v>74119</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>52735</v>
+        <v>52729</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>60276</v>
+        <v>60970</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>136599</v>
+        <v>137609</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>121040</v>
+        <v>118663</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>147449</v>
+        <v>148546</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>220311</v>
+        <v>222293</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>183056</v>
+        <v>181876</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>219458</v>
+        <v>218519</v>
       </c>
     </row>
     <row r="11">
@@ -2018,31 +2018,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>115011</v>
+        <v>113344</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>82803</v>
+        <v>82466</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>95153</v>
+        <v>95160</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>181933</v>
+        <v>179679</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>162987</v>
+        <v>160912</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>186631</v>
+        <v>185137</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>277438</v>
+        <v>282507</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>237133</v>
+        <v>234130</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>273588</v>
+        <v>269648</v>
       </c>
     </row>
     <row r="12">
@@ -2127,31 +2127,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>53951</v>
+        <v>52996</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>27202</v>
+        <v>28560</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>59744</v>
+        <v>61357</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>74596</v>
+        <v>74033</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>62017</v>
+        <v>61700</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>102585</v>
+        <v>102489</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>136198</v>
+        <v>134852</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>98430</v>
+        <v>96795</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>172303</v>
+        <v>170330</v>
       </c>
     </row>
     <row r="15">
@@ -2162,31 +2162,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>84412</v>
+        <v>84052</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>50356</v>
+        <v>49790</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>86146</v>
+        <v>88014</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>107769</v>
+        <v>106961</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>94440</v>
+        <v>93261</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>130608</v>
+        <v>130782</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>181127</v>
+        <v>181430</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>139009</v>
+        <v>134800</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>208869</v>
+        <v>211837</v>
       </c>
     </row>
     <row r="16">
@@ -2271,31 +2271,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>41898</v>
+        <v>43113</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>48479</v>
+        <v>48534</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>71026</v>
+        <v>71261</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>105217</v>
+        <v>104681</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>102709</v>
+        <v>102175</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>128192</v>
+        <v>127560</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>156825</v>
+        <v>158389</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>158804</v>
+        <v>158517</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>206387</v>
+        <v>206294</v>
       </c>
     </row>
     <row r="19">
@@ -2306,31 +2306,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>71702</v>
+        <v>70673</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>78182</v>
+        <v>76457</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>108490</v>
+        <v>109933</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>142378</v>
+        <v>141776</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>139672</v>
+        <v>142252</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>161870</v>
+        <v>163239</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>204267</v>
+        <v>203124</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>207121</v>
+        <v>209171</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>259536</v>
+        <v>261208</v>
       </c>
     </row>
     <row r="20">
@@ -2415,31 +2415,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>34781</v>
+        <v>35101</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>23394</v>
+        <v>23246</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>19645</v>
+        <v>18761</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>89067</v>
+        <v>88707</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>51974</v>
+        <v>51226</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>52300</v>
+        <v>52649</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>129743</v>
+        <v>131202</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>79324</v>
+        <v>79346</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>76503</v>
+        <v>76407</v>
       </c>
     </row>
     <row r="23">
@@ -2450,31 +2450,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>59932</v>
+        <v>60315</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>43507</v>
+        <v>43875</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>34411</v>
+        <v>34318</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>117750</v>
+        <v>118724</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>78351</v>
+        <v>77651</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>70494</v>
+        <v>70697</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>170439</v>
+        <v>172761</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>113174</v>
+        <v>115619</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>100875</v>
+        <v>99885</v>
       </c>
     </row>
     <row r="24">
@@ -2559,31 +2559,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>49249</v>
+        <v>50723</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>36559</v>
+        <v>36751</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>56127</v>
+        <v>55297</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>79685</v>
+        <v>79699</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>59938</v>
+        <v>59249</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>85867</v>
+        <v>86894</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>137848</v>
+        <v>136481</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>102989</v>
+        <v>103981</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>147002</v>
+        <v>149204</v>
       </c>
     </row>
     <row r="27">
@@ -2594,31 +2594,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>78769</v>
+        <v>79992</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>62417</v>
+        <v>62569</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>79901</v>
+        <v>79810</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>109990</v>
+        <v>110527</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>88654</v>
+        <v>89060</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>109284</v>
+        <v>110656</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>181420</v>
+        <v>181294</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>141916</v>
+        <v>143873</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>181079</v>
+        <v>182913</v>
       </c>
     </row>
     <row r="28">
@@ -2703,31 +2703,31 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>85560</v>
+        <v>84599</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>76998</v>
+        <v>75354</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>139157</v>
+        <v>137146</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>166483</v>
+        <v>163813</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>125884</v>
+        <v>126907</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>310789</v>
+        <v>309966</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>265691</v>
+        <v>267039</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>214215</v>
+        <v>213000</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>457097</v>
+        <v>462126</v>
       </c>
     </row>
     <row r="31">
@@ -2738,31 +2738,31 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>126062</v>
+        <v>123987</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>115048</v>
+        <v>111928</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>189900</v>
+        <v>185078</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>213195</v>
+        <v>212775</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>169342</v>
+        <v>171284</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>360741</v>
+        <v>361390</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>328451</v>
+        <v>331136</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>271029</v>
+        <v>272495</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>533669</v>
+        <v>535261</v>
       </c>
     </row>
     <row r="32">
@@ -2847,31 +2847,31 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>88745</v>
+        <v>88760</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>104902</v>
+        <v>104894</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>81581</v>
+        <v>81068</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>169484</v>
+        <v>166726</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>170888</v>
+        <v>174312</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>187090</v>
+        <v>188511</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>268333</v>
+        <v>270443</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>290932</v>
+        <v>289812</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>282329</v>
+        <v>278722</v>
       </c>
     </row>
     <row r="35">
@@ -2882,31 +2882,31 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>129482</v>
+        <v>131526</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>145622</v>
+        <v>146352</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>117269</v>
+        <v>114175</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>219558</v>
+        <v>218540</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>222981</v>
+        <v>224010</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>229826</v>
+        <v>230496</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>338052</v>
+        <v>334716</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>354097</v>
+        <v>354440</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>337583</v>
+        <v>335896</v>
       </c>
     </row>
     <row r="36">
@@ -2991,31 +2991,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>539454</v>
+        <v>538682</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>465671</v>
+        <v>466111</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>597165</v>
+        <v>594608</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>982004</v>
+        <v>980623</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>861862</v>
+        <v>854736</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>1155411</v>
+        <v>1162276</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>1547598</v>
+        <v>1551982</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>1352167</v>
+        <v>1354016</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>1778239</v>
+        <v>1779397</v>
       </c>
     </row>
     <row r="39">
@@ -3026,31 +3026,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>633614</v>
+        <v>630537</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>551658</v>
+        <v>549539</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>688699</v>
+        <v>685116</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>1102056</v>
+        <v>1097712</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>970974</v>
+        <v>971131</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>1257371</v>
+        <v>1262631</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>1690840</v>
+        <v>1692252</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>1491537</v>
+        <v>1492050</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>1916670</v>
+        <v>1921008</v>
       </c>
     </row>
     <row r="40">
